--- a/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment1.xlsx
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -227,9 +227,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -561,7 +558,7 @@
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>42037</v>
       </c>
     </row>
@@ -573,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +587,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -610,27 +607,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5000</v>
       </c>
       <c r="B2" s="6">
-        <v>848.21</v>
+        <v>900</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>4151.79</v>
+      <c r="E2" s="8">
+        <v>4100</v>
       </c>
       <c r="F2" s="6">
-        <v>858.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>181.28</v>
+        <v>175.54</v>
       </c>
       <c r="B3" s="6">
         <v>51.79</v>
@@ -642,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>129.49</v>
+        <v>123.75</v>
       </c>
       <c r="F3" s="6">
-        <v>41.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -668,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -698,7 +696,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +794,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -811,12 +809,12 @@
       <c r="D3" s="7">
         <v>42037</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="6">
-        <v>848.21</v>
-      </c>
-      <c r="G3" s="9">
-        <v>4151.79</v>
+        <v>900</v>
+      </c>
+      <c r="G3" s="8">
+        <v>4100</v>
       </c>
       <c r="H3" s="6">
         <v>51.79</v>
@@ -828,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>900</v>
+        <v>951.79</v>
       </c>
       <c r="L3" s="6">
-        <v>900</v>
+        <v>951.79</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -856,13 +854,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>858.48</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3293.31</v>
+        <v>900</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3200</v>
       </c>
       <c r="H4" s="6">
-        <v>41.52</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -871,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>900</v>
+        <v>941</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -883,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>900</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -899,13 +897,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>858.72</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2434.59</v>
+        <v>900</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2300</v>
       </c>
       <c r="H5" s="6">
-        <v>41.28</v>
+        <v>40.75</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -914,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>900</v>
+        <v>940.75</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -926,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>900</v>
+        <v>940.75</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -942,13 +940,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>875.65</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1558.94</v>
+        <v>900</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1400</v>
       </c>
       <c r="H6" s="6">
-        <v>24.35</v>
+        <v>23</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -957,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -969,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>900</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -985,13 +983,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>884.41</v>
+        <v>900</v>
       </c>
       <c r="G7" s="6">
-        <v>674.53</v>
+        <v>500</v>
       </c>
       <c r="H7" s="6">
-        <v>15.59</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1000,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -1012,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>900</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1028,13 +1026,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>674.53</v>
+        <v>500</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1043,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>681.28</v>
+        <v>505</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1055,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>681.28</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1067,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1119,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>53</v>
+        <v>3562</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1133,10 +1131,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
+        <v>951.79</v>
+      </c>
+      <c r="F2" s="6">
         <v>900</v>
-      </c>
-      <c r="F2" s="6">
-        <v>848.21</v>
       </c>
       <c r="G2" s="6">
         <v>51.79</v>
@@ -1147,15 +1145,15 @@
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="9">
-        <v>4151.79</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="8">
+        <v>4100</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>52</v>
+        <v>3557</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment1.xlsx
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -231,6 +231,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -612,23 +615,23 @@
         <v>5000</v>
       </c>
       <c r="B2" s="6">
-        <v>900</v>
+        <v>848.21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
-        <v>4100</v>
+      <c r="E2" s="11">
+        <v>4151.79</v>
       </c>
       <c r="F2" s="6">
-        <v>900</v>
+        <v>858.48</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>175.54</v>
+        <v>181.28</v>
       </c>
       <c r="B3" s="6">
         <v>51.79</v>
@@ -640,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>123.75</v>
+        <v>129.49</v>
       </c>
       <c r="F3" s="6">
-        <v>41</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,7 +699,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +798,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -811,10 +815,10 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="6">
-        <v>900</v>
-      </c>
-      <c r="G3" s="8">
-        <v>4100</v>
+        <v>848.21</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4151.79</v>
       </c>
       <c r="H3" s="6">
         <v>51.79</v>
@@ -826,15 +830,18 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>951.79</v>
+        <v>900</v>
       </c>
       <c r="L3" s="6">
-        <v>951.79</v>
+        <v>900</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -854,23 +861,23 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
+        <v>858.48</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3293.31</v>
+      </c>
+      <c r="H4" s="6">
+        <v>41.52</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>900</v>
       </c>
-      <c r="G4" s="8">
-        <v>3200</v>
-      </c>
-      <c r="H4" s="6">
-        <v>41</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>941</v>
-      </c>
       <c r="L4" s="6">
         <v>0</v>
       </c>
@@ -880,8 +887,11 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
       <c r="P4" s="6">
-        <v>941</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -897,23 +907,23 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
+        <v>858.72</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2434.59</v>
+      </c>
+      <c r="H5" s="6">
+        <v>41.28</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>900</v>
       </c>
-      <c r="G5" s="8">
-        <v>2300</v>
-      </c>
-      <c r="H5" s="6">
-        <v>40.75</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>940.75</v>
-      </c>
       <c r="L5" s="6">
         <v>0</v>
       </c>
@@ -923,8 +933,11 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
       <c r="P5" s="6">
-        <v>940.75</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -940,23 +953,23 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
+        <v>875.65</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1558.94</v>
+      </c>
+      <c r="H6" s="6">
+        <v>24.35</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>900</v>
       </c>
-      <c r="G6" s="8">
-        <v>1400</v>
-      </c>
-      <c r="H6" s="6">
-        <v>23</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>923</v>
-      </c>
       <c r="L6" s="6">
         <v>0</v>
       </c>
@@ -966,8 +979,11 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
       <c r="P6" s="6">
-        <v>923</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -983,23 +999,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
+        <v>884.41</v>
+      </c>
+      <c r="G7" s="6">
+        <v>674.53</v>
+      </c>
+      <c r="H7" s="6">
+        <v>15.59</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>900</v>
       </c>
-      <c r="G7" s="6">
-        <v>500</v>
-      </c>
-      <c r="H7" s="6">
-        <v>14</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>914</v>
-      </c>
       <c r="L7" s="6">
         <v>0</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
       <c r="P7" s="6">
-        <v>914</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1026,13 +1045,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>500</v>
+        <v>674.53</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1041,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>505</v>
+        <v>681.28</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1052,8 +1071,11 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
       <c r="P8" s="6">
-        <v>505</v>
+        <v>681.28</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1089,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1141,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>3562</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1131,10 +1153,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>951.79</v>
+        <v>900</v>
       </c>
       <c r="F2" s="6">
-        <v>900</v>
+        <v>848.21</v>
       </c>
       <c r="G2" s="6">
         <v>51.79</v>
@@ -1145,15 +1167,15 @@
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
-        <v>4100</v>
+      <c r="J2" s="11">
+        <v>4151.79</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>3557</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2479-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-PATTERN-VAR-INST-PERIODIC-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,10 +738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +759,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,17 +805,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -799,8 +843,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -838,17 +883,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -884,17 +930,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -930,17 +977,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -976,17 +1024,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1022,17 +1071,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1068,13 +1118,14 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>681.28</v>
       </c>
     </row>
@@ -1088,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L3"/>
     </sheetView>
   </sheetViews>
